--- a/LF/TAS/Nigeria/2024/apr_2024/ng_lf_tas_202404_3_fts_ben_oy.xlsx
+++ b/LF/TAS/Nigeria/2024/apr_2024/ng_lf_tas_202404_3_fts_ben_oy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\mar_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\apr_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9700D96F-0D6C-4DF3-8C30-EB59C91C7FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC82E29-F550-48B5-837B-9593F5284407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,19 +506,19 @@
     <t>d_sleep_bed_net</t>
   </si>
   <si>
-    <t>ng_lf_tas_202403_3_fts_bay_v2_2</t>
-  </si>
-  <si>
-    <t>(2024 Mar) Nigeria - 3. TAS1 LF FTS Results Form - Bayelsa V2.2.</t>
-  </si>
-  <si>
-    <t>ng_fts_202403_v2_2</t>
-  </si>
-  <si>
     <t>d_village_community</t>
   </si>
   <si>
     <t>Village/Community</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_202404_3_fts_ben_oy</t>
+  </si>
+  <si>
+    <t>(2024 Apr) Nigeria - 3. TAS1 LF FTS Results Form - Benue &amp; Oyo</t>
+  </si>
+  <si>
+    <t>ng_fts_2404</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1046,10 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1256,7 +1256,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>110</v>
@@ -1724,10 +1724,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H29" s="30" t="s">
         <v>127</v>
@@ -3434,7 +3434,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3461,10 +3461,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>100</v>

--- a/LF/TAS/Nigeria/2024/apr_2024/ng_lf_tas_202404_3_fts_ben_oy.xlsx
+++ b/LF/TAS/Nigeria/2024/apr_2024/ng_lf_tas_202404_3_fts_ben_oy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Nigeria\2024\apr_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC82E29-F550-48B5-837B-9593F5284407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E2EE66-09AF-4AF8-A4C9-3C7EA7CCAAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="171">
   <si>
     <t>type</t>
   </si>
@@ -512,13 +512,43 @@
     <t>Village/Community</t>
   </si>
   <si>
-    <t>ng_lf_tas_202404_3_fts_ben_oy</t>
-  </si>
-  <si>
-    <t>(2024 Apr) Nigeria - 3. TAS1 LF FTS Results Form - Benue &amp; Oyo</t>
-  </si>
-  <si>
     <t>ng_fts_2404</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>(2024 Apr) Nigeria - 3. TAS1 LF FTS Results Form - Benue &amp; Oyo V2</t>
+  </si>
+  <si>
+    <t>ng_lf_tas_202404_3_fts_ben_oy_v2</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1256,7 +1286,7 @@
         <v>103</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>110</v>
@@ -1861,11 +1891,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD13"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2010,230 +2040,290 @@
         <v>135</v>
       </c>
       <c r="B12" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="6" customFormat="1">
+      <c r="A13" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="6" customFormat="1">
+      <c r="A14" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1">
+      <c r="A15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="6" customFormat="1">
+      <c r="A16" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="6" customFormat="1">
+      <c r="A17" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="6" customFormat="1">
+      <c r="A18" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="6" customFormat="1">
+      <c r="A19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="6" customFormat="1">
+      <c r="A20" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="6" customFormat="1">
+      <c r="A21" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="6" customFormat="1">
+      <c r="A22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C22" s="40" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1">
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="4" t="s">
+    <row r="23" spans="1:3" s="6" customFormat="1">
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>91</v>
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>81</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="4"/>
@@ -3417,13 +3507,63 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="4"/>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6"/>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="4"/>
+      <c r="B277" s="6"/>
+      <c r="C277" s="6"/>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="4"/>
+      <c r="B278" s="6"/>
+      <c r="C278" s="6"/>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="4"/>
+      <c r="B279" s="6"/>
+      <c r="C279" s="6"/>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="4"/>
+      <c r="B280" s="6"/>
+      <c r="C280" s="6"/>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="4"/>
+      <c r="B281" s="6"/>
+      <c r="C281" s="6"/>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="4"/>
+      <c r="B282" s="6"/>
+      <c r="C282" s="6"/>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="4"/>
+      <c r="B283" s="6"/>
+      <c r="C283" s="6"/>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="4"/>
+      <c r="B284" s="6"/>
+      <c r="C284" s="6"/>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="4"/>
+      <c r="B285" s="6"/>
+      <c r="C285" s="6"/>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="4"/>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A22:C29">
-    <sortCondition ref="B22:B29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:C39">
+    <sortCondition ref="B32:B39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3433,8 +3573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3461,10 +3601,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>100</v>
